--- a/aiurt-module-system/src/main/resources/templates/stockInOrderLevel2.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/stockInOrderLevel2.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="1500" windowWidth="28240" windowHeight="17440" xr2:uid="{752BAC88-3D22-6345-9E5D-6A586CA68B77}"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="二级库入库导入模板" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>二级库入库导入模板</t>
   </si>
   <si>
-    <t>
-填写须知：
+    <t>填写须知：
 1.请勿增加、删除、或修改表格中的字段顺序、字段名称；
 2.请严格按照数据规范填写，并填写完所有必填项，红底白字列为必填项；
 字段说明：
@@ -30,8 +29,7 @@
 4.备注：非必填；
 5.物资编码：必填，且系统中已存在，来自于基础数据的物资主数据；
 6.物资名称：必填，编码与名称需对应得上； 
-7.入库数量：必填。
-</t>
+7.入库数量：必填。</t>
   </si>
   <si>
     <t>入库仓库</t>
@@ -58,21 +56,72 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -80,38 +129,119 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-    </font>
-    <font>
-      <sz val="10"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,15 +251,239 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -148,103 +502,337 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -293,7 +881,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -326,26 +914,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -378,23 +949,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -536,44 +1090,41 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E1092-59D6-0841-9542-AE5505D0AA25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.498046875" customWidth="1" style="5"/>
-    <col min="2" max="4" width="21" customWidth="1" style="5"/>
-    <col min="5" max="6" width="15.9990234375" customWidth="1" style="5"/>
+    <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
+    <col min="2" max="4" width="21" style="1" customWidth="1"/>
+    <col min="5" max="6" width="16" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" ht="14.25" customHeight="1" spans="1:7">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5"/>
     </row>
-    <row r="2" ht="168" customHeight="1">
-      <c r="A2" s="12" t="s">
+    <row r="2" ht="168" customHeight="1" spans="1:7">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6"/>
@@ -583,7 +1134,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" ht="14.25" customHeight="1" spans="1:7">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -608,10 +1159,10 @@
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/aiurt-module-system/src/main/resources/templates/stockInOrderLevel2.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/stockInOrderLevel2.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="二级库入库导入模板" sheetId="1" r:id="rId1"/>
+    <sheet name="入库仓库_hiddenSheet" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>二级库入库导入模板</t>
   </si>
@@ -44,6 +45,9 @@
     <t>备注</t>
   </si>
   <si>
+    <t>物资信息</t>
+  </si>
+  <si>
     <t>物资编码</t>
   </si>
   <si>
@@ -51,6 +55,18 @@
   </si>
   <si>
     <t>入库数量</t>
+  </si>
+  <si>
+    <t>信号维修分部库</t>
+  </si>
+  <si>
+    <t>通信分部库</t>
+  </si>
+  <si>
+    <t>西湖车辆段库</t>
+  </si>
+  <si>
+    <t>永春车辆段库</t>
   </si>
 </sst>
 </file>
@@ -441,7 +457,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -496,6 +512,32 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -610,7 +652,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,7 +682,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -658,28 +700,28 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -688,10 +730,10 @@
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -749,7 +791,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -771,10 +813,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1098,13 +1155,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
     <col min="2" max="4" width="21" style="1" customWidth="1"/>
@@ -1123,7 +1180,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" ht="168" customHeight="1" spans="1:7">
+    <row r="2" ht="167" customHeight="1" spans="1:7">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1134,7 +1191,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" ht="14.25" customHeight="1" spans="1:7">
+    <row r="3" ht="29" customHeight="1" spans="1:7">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -1147,21 +1204,91 @@
       <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" ht="14.25" customHeight="1" spans="1:7">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="F4" s="13" t="s">
         <v>8</v>
       </c>
+      <c r="G4" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="7">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="A5:A65537">
+      <formula1>入库仓库_hiddenSheet!$A$1:$A$65535</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="3"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
